--- a/08. Docs/08.03. Nozzle/Analyse.xlsx
+++ b/08. Docs/08.03. Nozzle/Analyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="11772"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Micro Swiss</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Amazon.fr</t>
+  </si>
+  <si>
+    <t>0.2 mm = Fine Details, layer height ~ 0.05 mm, extrusion Width of ~ 0.20</t>
+  </si>
+  <si>
+    <t>0.3 mm = Fine all-round nozzle</t>
+  </si>
+  <si>
+    <t>0.4 mm = provides working nozzle for everyday use with 0.5 mm Extrusion width</t>
+  </si>
+  <si>
+    <t>0.6 mm = for fast printing – really interesting with low extrusion widths grain filaments as Laywood, Woodfill etc</t>
   </si>
 </sst>
 </file>
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I9"/>
+  <dimension ref="A4:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +608,26 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
